--- a/src/test/resources/TestData/AutomationTestData.xlsx
+++ b/src/test/resources/TestData/AutomationTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1E777AEE-627B-4AF0-9FBB-E5B444868DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ACF271F5-AE64-4768-A775-A8B33F9A45AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23280" windowHeight="13224" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pythonCode" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Register" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:O6"/>
+  <oleSize ref="A1:O10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
